--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4E41AF-487E-47F3-B1A6-3F41EA273E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24675907-D306-467E-B0AB-E1D675F6C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>val2A1</t>
   </si>
   <si>
-    <t>val2B1</t>
-  </si>
-  <si>
     <t>val2B2</t>
+  </si>
+  <si>
+    <t>val2B3</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24675907-D306-467E-B0AB-E1D675F6C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56322DD-0EE3-44B1-B261-699BE0708269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>col1A</t>
   </si>
@@ -480,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E3A28-6262-40DE-9BDD-2801112B4848}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,4 +515,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA42F2-39A0-499C-BBD6-2DACF65DE265}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56322DD-0EE3-44B1-B261-699BE0708269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78941D35-F185-4EEE-AA0E-199087C23817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
+    <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>col1A</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,9 +544,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78941D35-F185-4EEE-AA0E-199087C23817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1851633-4CA7-47DA-8AF4-A22E679D900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>col1A</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,11 +535,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>

--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1851633-4CA7-47DA-8AF4-A22E679D900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E4155-9094-482E-9A27-8D29D7E5D3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>col1A</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>val2B3</t>
+  </si>
+  <si>
+    <t>Bbb</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA42F2-39A0-499C-BBD6-2DACF65DE265}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,9 +538,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E4155-9094-482E-9A27-8D29D7E5D3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3ECF3-4852-43F1-A43B-8C7B6F60B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>val2B3</t>
   </si>
   <si>
-    <t>Bbb</t>
+    <t>CCC</t>
   </si>
 </sst>
 </file>

--- a/excelDif.xlsx
+++ b/excelDif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\yuta\gitExcelDif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3ECF3-4852-43F1-A43B-8C7B6F60B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E83C51-D0FF-4237-916F-9FC16026145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="675" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CBD11E54-8586-4881-A19E-2CCAF75B7CDE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>col1A</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BA42F2-39A0-499C-BBD6-2DACF65DE265}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,6 +546,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
